--- a/Test Data/Gallery_PanelAccessories_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro_Lite_Panels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382BCCD1-5C5C-4DA5-84D3-109B9D7EC839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F254FF4-8928-4E4C-8158-A618BC7FCBBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>FB800</t>
-  </si>
-  <si>
-    <t>PCS800</t>
   </si>
   <si>
     <t>POS800-M</t>
@@ -563,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -585,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -613,22 +610,22 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -680,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -702,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -730,17 +727,17 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -768,7 +765,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -814,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -842,17 +839,17 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -880,7 +877,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -926,7 +923,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -949,22 +946,22 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1016,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1038,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1066,17 +1063,17 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test Data/Gallery_PanelAccessories_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro_Lite_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F254FF4-8928-4E4C-8158-A618BC7FCBBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB8D538-221C-492F-AF1F-E85108626FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
+    <sheet name="Italy" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>NGC-3477/T1734</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3145/T2155 </t>
   </si>
 </sst>
 </file>
@@ -876,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CF227-CC4B-4937-808D-DFD6779CC2CC}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,4 +1101,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F62B54-E3D1-4076-8E3E-E444FDB07EC1}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro_Lite_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB8D538-221C-492F-AF1F-E85108626FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE257CA-621B-439B-81F9-559356071A8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Italy" sheetId="18" r:id="rId6"/>
+    <sheet name="Spain" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -119,6 +120,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-3145/T2155 </t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3103/T2034 </t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F62B54-E3D1-4076-8E3E-E444FDB07EC1}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,4 +1220,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5BCB24-00A4-4877-932A-98DC36AC11A6}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro_Lite_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE257CA-621B-439B-81F9-559356071A8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD26264-44FE-443E-9A79-BBE66D928008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Italy" sheetId="18" r:id="rId6"/>
     <sheet name="Spain" sheetId="19" r:id="rId7"/>
+    <sheet name="Netherlands" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -126,6 +127,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-3103/T2034 </t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3144/T2176 </t>
   </si>
 </sst>
 </file>
@@ -1226,6 +1233,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5BCB24-00A4-4877-932A-98DC36AC11A6}">
   <dimension ref="A1:D13"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A69925-E382-435B-927A-DD3901BDADA0}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1245,19 +1363,19 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1267,19 +1385,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -1329,6 +1447,5 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro_Lite_Panels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD26264-44FE-443E-9A79-BBE66D928008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33EAC1E-309F-427E-A22F-B57C8918A63A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-3144/T2176 </t>
+  </si>
+  <si>
+    <t>MX-DPBX</t>
+  </si>
+  <si>
+    <t>MX-BBX</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F62B54-E3D1-4076-8E3E-E444FDB07EC1}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,11 +1217,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1342,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A69925-E382-435B-927A-DD3901BDADA0}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1433,11 +1449,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1447,5 +1473,6 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_Pro_Lite_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33EAC1E-309F-427E-A22F-B57C8918A63A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0819F828-3936-42D3-BA1E-56C61880AB75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Italy" sheetId="18" r:id="rId6"/>
     <sheet name="Spain" sheetId="19" r:id="rId7"/>
     <sheet name="Netherlands" sheetId="20" r:id="rId8"/>
+    <sheet name="UK" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -139,6 +140,12 @@
   </si>
   <si>
     <t>MX-BBX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-2741/T2176 </t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A69925-E382-435B-927A-DD3901BDADA0}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
@@ -1475,4 +1482,125 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C85F225-502A-40EB-B88C-6CEE71FAB032}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>